--- a/math/口算表.xlsx
+++ b/math/口算表.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouji/projects/k12-education/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouji/projects/k12-education/math/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E9D283-B6F2-4B4B-BD2E-DF8EF372C408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ECC290-F5EC-0049-AF55-7BC726872332}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="460" windowWidth="20780" windowHeight="17040" xr2:uid="{9E6E616A-2259-2C43-9342-F3A2907E112A}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="20780" windowHeight="17040" xr2:uid="{9E6E616A-2259-2C43-9342-F3A2907E112A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet4 (2)" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>九九加法表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +53,14 @@
   </si>
   <si>
     <t>二十以内减法表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九九加法表（全）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九九乘法表（全）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,9 +217,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +549,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -548,58 +558,58 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>IF($A2&gt;=B$11,$A2&amp;"+"&amp;B$11&amp;"="&amp;$A2+B$11,"")</f>
+        <f t="shared" ref="B2:J10" si="0">IF($A2&gt;=B$11,$A2&amp;"+"&amp;B$11&amp;"="&amp;$A2+B$11,"")</f>
         <v>1+1=2</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>IF($A2&gt;=C$11,$A2&amp;"+"&amp;C$11&amp;"="&amp;$A2+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D2" s="3" t="str">
-        <f>IF($A2&gt;=D$11,$A2&amp;"+"&amp;D$11&amp;"="&amp;$A2+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E2" s="3" t="str">
-        <f>IF($A2&gt;=E$11,$A2&amp;"+"&amp;E$11&amp;"="&amp;$A2+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F2" s="3" t="str">
-        <f>IF($A2&gt;=F$11,$A2&amp;"+"&amp;F$11&amp;"="&amp;$A2+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G2" s="3" t="str">
-        <f>IF($A2&gt;=G$11,$A2&amp;"+"&amp;G$11&amp;"="&amp;$A2+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H2" s="3" t="str">
-        <f>IF($A2&gt;=H$11,$A2&amp;"+"&amp;H$11&amp;"="&amp;$A2+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IF($A2&gt;=I$11,$A2&amp;"+"&amp;I$11&amp;"="&amp;$A2+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J2" s="3" t="str">
-        <f>IF($A2&gt;=J$11,$A2&amp;"+"&amp;J$11&amp;"="&amp;$A2+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -608,39 +618,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>IF($A3&gt;=B$11,$A3&amp;"+"&amp;B$11&amp;"="&amp;$A3+B$11,"")</f>
+        <f t="shared" si="0"/>
         <v>2+1=3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>IF($A3&gt;=C$11,$A3&amp;"+"&amp;C$11&amp;"="&amp;$A3+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v>2+2=4</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF($A3&gt;=D$11,$A3&amp;"+"&amp;D$11&amp;"="&amp;$A3+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E3" s="3" t="str">
-        <f>IF($A3&gt;=E$11,$A3&amp;"+"&amp;E$11&amp;"="&amp;$A3+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F3" s="3" t="str">
-        <f>IF($A3&gt;=F$11,$A3&amp;"+"&amp;F$11&amp;"="&amp;$A3+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G3" s="3" t="str">
-        <f>IF($A3&gt;=G$11,$A3&amp;"+"&amp;G$11&amp;"="&amp;$A3+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H3" s="3" t="str">
-        <f>IF($A3&gt;=H$11,$A3&amp;"+"&amp;H$11&amp;"="&amp;$A3+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I3" s="3" t="str">
-        <f>IF($A3&gt;=I$11,$A3&amp;"+"&amp;I$11&amp;"="&amp;$A3+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J3" s="3" t="str">
-        <f>IF($A3&gt;=J$11,$A3&amp;"+"&amp;J$11&amp;"="&amp;$A3+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -649,39 +659,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>IF($A4&gt;=B$11,$A4&amp;"+"&amp;B$11&amp;"="&amp;$A4+B$11,"")</f>
+        <f t="shared" si="0"/>
         <v>3+1=4</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>IF($A4&gt;=C$11,$A4&amp;"+"&amp;C$11&amp;"="&amp;$A4+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v>3+2=5</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>IF($A4&gt;=D$11,$A4&amp;"+"&amp;D$11&amp;"="&amp;$A4+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v>3+3=6</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f>IF($A4&gt;=E$11,$A4&amp;"+"&amp;E$11&amp;"="&amp;$A4+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F4" s="3" t="str">
-        <f>IF($A4&gt;=F$11,$A4&amp;"+"&amp;F$11&amp;"="&amp;$A4+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G4" s="3" t="str">
-        <f>IF($A4&gt;=G$11,$A4&amp;"+"&amp;G$11&amp;"="&amp;$A4+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H4" s="3" t="str">
-        <f>IF($A4&gt;=H$11,$A4&amp;"+"&amp;H$11&amp;"="&amp;$A4+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I4" s="3" t="str">
-        <f>IF($A4&gt;=I$11,$A4&amp;"+"&amp;I$11&amp;"="&amp;$A4+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J4" s="3" t="str">
-        <f>IF($A4&gt;=J$11,$A4&amp;"+"&amp;J$11&amp;"="&amp;$A4+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -690,39 +700,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>IF($A5&gt;=B$11,$A5&amp;"+"&amp;B$11&amp;"="&amp;$A5+B$11,"")</f>
+        <f t="shared" si="0"/>
         <v>4+1=5</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>IF($A5&gt;=C$11,$A5&amp;"+"&amp;C$11&amp;"="&amp;$A5+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v>4+2=6</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>IF($A5&gt;=D$11,$A5&amp;"+"&amp;D$11&amp;"="&amp;$A5+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v>4+3=7</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>IF($A5&gt;=E$11,$A5&amp;"+"&amp;E$11&amp;"="&amp;$A5+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v>4+4=8</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>IF($A5&gt;=F$11,$A5&amp;"+"&amp;F$11&amp;"="&amp;$A5+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G5" s="3" t="str">
-        <f>IF($A5&gt;=G$11,$A5&amp;"+"&amp;G$11&amp;"="&amp;$A5+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" s="3" t="str">
-        <f>IF($A5&gt;=H$11,$A5&amp;"+"&amp;H$11&amp;"="&amp;$A5+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I5" s="3" t="str">
-        <f>IF($A5&gt;=I$11,$A5&amp;"+"&amp;I$11&amp;"="&amp;$A5+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5" s="3" t="str">
-        <f>IF($A5&gt;=J$11,$A5&amp;"+"&amp;J$11&amp;"="&amp;$A5+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -731,39 +741,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>IF($A6&gt;=B$11,$A6&amp;"+"&amp;B$11&amp;"="&amp;$A6+B$11,"")</f>
+        <f t="shared" si="0"/>
         <v>5+1=6</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>IF($A6&gt;=C$11,$A6&amp;"+"&amp;C$11&amp;"="&amp;$A6+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v>5+2=7</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>IF($A6&gt;=D$11,$A6&amp;"+"&amp;D$11&amp;"="&amp;$A6+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v>5+3=8</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>IF($A6&gt;=E$11,$A6&amp;"+"&amp;E$11&amp;"="&amp;$A6+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v>5+4=9</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF($A6&gt;=F$11,$A6&amp;"+"&amp;F$11&amp;"="&amp;$A6+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v>5+5=10</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f>IF($A6&gt;=G$11,$A6&amp;"+"&amp;G$11&amp;"="&amp;$A6+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H6" s="3" t="str">
-        <f>IF($A6&gt;=H$11,$A6&amp;"+"&amp;H$11&amp;"="&amp;$A6+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I6" s="3" t="str">
-        <f>IF($A6&gt;=I$11,$A6&amp;"+"&amp;I$11&amp;"="&amp;$A6+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J6" s="3" t="str">
-        <f>IF($A6&gt;=J$11,$A6&amp;"+"&amp;J$11&amp;"="&amp;$A6+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -772,39 +782,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>IF($A7&gt;=B$11,$A7&amp;"+"&amp;B$11&amp;"="&amp;$A7+B$11,"")</f>
+        <f t="shared" si="0"/>
         <v>6+1=7</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>IF($A7&gt;=C$11,$A7&amp;"+"&amp;C$11&amp;"="&amp;$A7+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v>6+2=8</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>IF($A7&gt;=D$11,$A7&amp;"+"&amp;D$11&amp;"="&amp;$A7+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v>6+3=9</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IF($A7&gt;=E$11,$A7&amp;"+"&amp;E$11&amp;"="&amp;$A7+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v>6+4=10</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF($A7&gt;=F$11,$A7&amp;"+"&amp;F$11&amp;"="&amp;$A7+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v>6+5=11</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>IF($A7&gt;=G$11,$A7&amp;"+"&amp;G$11&amp;"="&amp;$A7+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v>6+6=12</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f>IF($A7&gt;=H$11,$A7&amp;"+"&amp;H$11&amp;"="&amp;$A7+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" s="3" t="str">
-        <f>IF($A7&gt;=I$11,$A7&amp;"+"&amp;I$11&amp;"="&amp;$A7+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7" s="3" t="str">
-        <f>IF($A7&gt;=J$11,$A7&amp;"+"&amp;J$11&amp;"="&amp;$A7+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -813,39 +823,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>IF($A8&gt;=B$11,$A8&amp;"+"&amp;B$11&amp;"="&amp;$A8+B$11,"")</f>
+        <f t="shared" si="0"/>
         <v>7+1=8</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>IF($A8&gt;=C$11,$A8&amp;"+"&amp;C$11&amp;"="&amp;$A8+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v>7+2=9</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>IF($A8&gt;=D$11,$A8&amp;"+"&amp;D$11&amp;"="&amp;$A8+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v>7+3=10</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>IF($A8&gt;=E$11,$A8&amp;"+"&amp;E$11&amp;"="&amp;$A8+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v>7+4=11</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF($A8&gt;=F$11,$A8&amp;"+"&amp;F$11&amp;"="&amp;$A8+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v>7+5=12</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>IF($A8&gt;=G$11,$A8&amp;"+"&amp;G$11&amp;"="&amp;$A8+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v>7+6=13</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>IF($A8&gt;=H$11,$A8&amp;"+"&amp;H$11&amp;"="&amp;$A8+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v>7+7=14</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>IF($A8&gt;=I$11,$A8&amp;"+"&amp;I$11&amp;"="&amp;$A8+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J8" s="3" t="str">
-        <f>IF($A8&gt;=J$11,$A8&amp;"+"&amp;J$11&amp;"="&amp;$A8+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -854,39 +864,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>IF($A9&gt;=B$11,$A9&amp;"+"&amp;B$11&amp;"="&amp;$A9+B$11,"")</f>
+        <f t="shared" si="0"/>
         <v>8+1=9</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>IF($A9&gt;=C$11,$A9&amp;"+"&amp;C$11&amp;"="&amp;$A9+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v>8+2=10</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>IF($A9&gt;=D$11,$A9&amp;"+"&amp;D$11&amp;"="&amp;$A9+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v>8+3=11</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>IF($A9&gt;=E$11,$A9&amp;"+"&amp;E$11&amp;"="&amp;$A9+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v>8+4=12</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF($A9&gt;=F$11,$A9&amp;"+"&amp;F$11&amp;"="&amp;$A9+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v>8+5=13</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>IF($A9&gt;=G$11,$A9&amp;"+"&amp;G$11&amp;"="&amp;$A9+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v>8+6=14</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>IF($A9&gt;=H$11,$A9&amp;"+"&amp;H$11&amp;"="&amp;$A9+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v>8+7=15</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f>IF($A9&gt;=I$11,$A9&amp;"+"&amp;I$11&amp;"="&amp;$A9+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v>8+8=16</v>
       </c>
       <c r="J9" s="3" t="str">
-        <f>IF($A9&gt;=J$11,$A9&amp;"+"&amp;J$11&amp;"="&amp;$A9+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -895,39 +905,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>IF($A10&gt;=B$11,$A10&amp;"+"&amp;B$11&amp;"="&amp;$A10+B$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+1=10</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>IF($A10&gt;=C$11,$A10&amp;"+"&amp;C$11&amp;"="&amp;$A10+C$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+2=11</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>IF($A10&gt;=D$11,$A10&amp;"+"&amp;D$11&amp;"="&amp;$A10+D$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+3=12</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>IF($A10&gt;=E$11,$A10&amp;"+"&amp;E$11&amp;"="&amp;$A10+E$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+4=13</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IF($A10&gt;=F$11,$A10&amp;"+"&amp;F$11&amp;"="&amp;$A10+F$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+5=14</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>IF($A10&gt;=G$11,$A10&amp;"+"&amp;G$11&amp;"="&amp;$A10+G$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+6=15</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>IF($A10&gt;=H$11,$A10&amp;"+"&amp;H$11&amp;"="&amp;$A10+H$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+7=16</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IF($A10&gt;=I$11,$A10&amp;"+"&amp;I$11&amp;"="&amp;$A10+I$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+8=17</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>IF($A10&gt;=J$11,$A10&amp;"+"&amp;J$11&amp;"="&amp;$A10+J$11,"")</f>
+        <f t="shared" si="0"/>
         <v>9+9=18</v>
       </c>
     </row>
@@ -962,51 +972,51 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="44" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>6</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>7</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>8</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1014,363 +1024,363 @@
         <v>11+1=12</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" ref="C15:J15" si="0">IF($A15+C$14&lt;=20,$A15&amp;"+"&amp;C$14&amp;"="&amp;$A15+C$14,"")</f>
+        <f t="shared" ref="C15:J15" si="1">IF($A15+C$14&lt;=20,$A15&amp;"+"&amp;C$14&amp;"="&amp;$A15+C$14,"")</f>
         <v>11+2=13</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11+3=14</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11+4=15</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11+5=16</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11+6=17</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11+7=18</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11+8=19</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11+9=20</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" ref="B16:J23" si="1">IF($A16+B$14&lt;=20,$A16&amp;"+"&amp;B$14&amp;"="&amp;$A16+B$14,"")</f>
+        <f t="shared" ref="B16:J23" si="2">IF($A16+B$14&lt;=20,$A16&amp;"+"&amp;B$14&amp;"="&amp;$A16+B$14,"")</f>
         <v>12+1=13</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12+2=14</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12+3=15</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12+4=16</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12+5=17</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12+6=18</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12+7=19</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12+8=20</v>
       </c>
       <c r="J16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:10" ht="40" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13+1=14</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13+2=15</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13+3=16</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13+4=17</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13+5=18</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13+6=19</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13+7=20</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:10" ht="40" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14+1=15</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14+2=16</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14+3=17</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14+4=18</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14+5=19</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14+6=20</v>
       </c>
       <c r="H18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15+1=16</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15+2=17</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15+3=18</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15+4=19</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15+5=20</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16+1=17</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16+2=18</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16+3=19</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16+4=20</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:10" ht="40" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17+1=18</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17+2=19</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17+3=20</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:10" ht="40" customHeight="1">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18+1=19</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18+2=20</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:10" ht="40" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19+1=20</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1391,6 +1401,447 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7281994-0C9B-0C43-A6F1-1F2411939DD5}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="40" customHeight="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f>$A2&amp;"+"&amp;B$11&amp;"="&amp;$A2+B$11</f>
+        <v>1+1=2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:J2" si="0">$A2&amp;"+"&amp;C$11&amp;"="&amp;$A2+C$11</f>
+        <v>1+2=3</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1+3=4</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1+4=5</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1+5=6</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1+6=7</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1+7=8</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1+8=9</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1+9=10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:J10" si="1">$A3&amp;"+"&amp;B$11&amp;"="&amp;$A3+B$11</f>
+        <v>2+1=3</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2+2=4</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2+3=5</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2+4=6</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2+5=7</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2+6=8</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2+7=9</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2+8=10</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2+9=11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="40" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3+1=4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3+2=5</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3+3=6</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3+4=7</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3+5=8</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3+6=9</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3+7=10</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3+8=11</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3+9=12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40" customHeight="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4+1=5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4+2=6</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4+3=7</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4+4=8</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4+5=9</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4+6=10</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4+7=11</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4+8=12</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4+9=13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="40" customHeight="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5+1=6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5+2=7</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5+3=8</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5+4=9</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5+5=10</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5+6=11</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5+7=12</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5+8=13</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5+9=14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40" customHeight="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6+1=7</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6+2=8</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6+3=9</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6+4=10</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6+5=11</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6+6=12</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6+7=13</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6+8=14</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6+9=15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7+1=8</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7+2=9</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7+3=10</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7+4=11</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7+5=12</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7+6=13</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>7+7=14</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7+8=15</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7+9=16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8+1=9</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8+2=10</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8+3=11</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8+4=12</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8+5=13</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8+6=14</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8+7=15</v>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>8+8=16</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8+9=17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9+1=10</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9+2=11</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9+3=12</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9+4=13</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9+5=14</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9+6=15</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9+7=16</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9+8=17</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>9+9=18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAFCFC7-58E2-A343-8531-85CED87FFE8F}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -1404,21 +1855,21 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="40" customHeight="1">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="40" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1869,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42DEBD0-273E-8F42-ADC2-3FAD2D595FFD}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -1883,19 +2334,19 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="4"/>
@@ -1927,44 +2378,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" ht="40" customHeight="1">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="40" customHeight="1">
       <c r="A3" s="5">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="str">
-        <f>$A3&amp;"-"&amp;B$2&amp;"="&amp;$A3-B$2</f>
+      <c r="B3" s="9" t="str">
+        <f t="shared" ref="B3:J12" si="0">$A3&amp;"-"&amp;B$2&amp;"="&amp;$A3-B$2</f>
         <v>11-1=10</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>$A3&amp;"-"&amp;C$2&amp;"="&amp;$A3-C$2</f>
+        <f t="shared" si="0"/>
         <v>11-2=9</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>$A3&amp;"-"&amp;D$2&amp;"="&amp;$A3-D$2</f>
+        <f t="shared" si="0"/>
         <v>11-3=8</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>$A3&amp;"-"&amp;E$2&amp;"="&amp;$A3-E$2</f>
+        <f t="shared" si="0"/>
         <v>11-4=7</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>$A3&amp;"-"&amp;F$2&amp;"="&amp;$A3-F$2</f>
+        <f t="shared" si="0"/>
         <v>11-5=6</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>$A3&amp;"-"&amp;G$2&amp;"="&amp;$A3-G$2</f>
+        <f t="shared" si="0"/>
         <v>11-6=5</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f>$A3&amp;"-"&amp;H$2&amp;"="&amp;$A3-H$2</f>
+        <f t="shared" si="0"/>
         <v>11-7=4</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f>$A3&amp;"-"&amp;I$2&amp;"="&amp;$A3-I$2</f>
+        <f t="shared" si="0"/>
         <v>11-8=3</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f>$A3&amp;"-"&amp;J$2&amp;"="&amp;$A3-J$2</f>
+        <f t="shared" si="0"/>
         <v>11-9=2</v>
       </c>
     </row>
@@ -1973,39 +2424,39 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>$A4&amp;"-"&amp;B$2&amp;"="&amp;$A4-B$2</f>
+        <f t="shared" si="0"/>
         <v>12-1=11</v>
       </c>
-      <c r="C4" s="10" t="str">
-        <f>$A4&amp;"-"&amp;C$2&amp;"="&amp;$A4-C$2</f>
+      <c r="C4" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>12-2=10</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>$A4&amp;"-"&amp;D$2&amp;"="&amp;$A4-D$2</f>
+        <f t="shared" si="0"/>
         <v>12-3=9</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>$A4&amp;"-"&amp;E$2&amp;"="&amp;$A4-E$2</f>
+        <f t="shared" si="0"/>
         <v>12-4=8</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>$A4&amp;"-"&amp;F$2&amp;"="&amp;$A4-F$2</f>
+        <f t="shared" si="0"/>
         <v>12-5=7</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>$A4&amp;"-"&amp;G$2&amp;"="&amp;$A4-G$2</f>
+        <f t="shared" si="0"/>
         <v>12-6=6</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f>$A4&amp;"-"&amp;H$2&amp;"="&amp;$A4-H$2</f>
+        <f t="shared" si="0"/>
         <v>12-7=5</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f>$A4&amp;"-"&amp;I$2&amp;"="&amp;$A4-I$2</f>
+        <f t="shared" si="0"/>
         <v>12-8=4</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f>$A4&amp;"-"&amp;J$2&amp;"="&amp;$A4-J$2</f>
+        <f t="shared" si="0"/>
         <v>12-9=3</v>
       </c>
     </row>
@@ -2014,39 +2465,39 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>$A5&amp;"-"&amp;B$2&amp;"="&amp;$A5-B$2</f>
+        <f t="shared" si="0"/>
         <v>13-1=12</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>$A5&amp;"-"&amp;C$2&amp;"="&amp;$A5-C$2</f>
+        <f t="shared" si="0"/>
         <v>13-2=11</v>
       </c>
-      <c r="D5" s="10" t="str">
-        <f>$A5&amp;"-"&amp;D$2&amp;"="&amp;$A5-D$2</f>
+      <c r="D5" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>13-3=10</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>$A5&amp;"-"&amp;E$2&amp;"="&amp;$A5-E$2</f>
+        <f t="shared" si="0"/>
         <v>13-4=9</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>$A5&amp;"-"&amp;F$2&amp;"="&amp;$A5-F$2</f>
+        <f t="shared" si="0"/>
         <v>13-5=8</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>$A5&amp;"-"&amp;G$2&amp;"="&amp;$A5-G$2</f>
+        <f t="shared" si="0"/>
         <v>13-6=7</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>$A5&amp;"-"&amp;H$2&amp;"="&amp;$A5-H$2</f>
+        <f t="shared" si="0"/>
         <v>13-7=6</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f>$A5&amp;"-"&amp;I$2&amp;"="&amp;$A5-I$2</f>
+        <f t="shared" si="0"/>
         <v>13-8=5</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f>$A5&amp;"-"&amp;J$2&amp;"="&amp;$A5-J$2</f>
+        <f t="shared" si="0"/>
         <v>13-9=4</v>
       </c>
     </row>
@@ -2055,39 +2506,39 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>$A6&amp;"-"&amp;B$2&amp;"="&amp;$A6-B$2</f>
+        <f t="shared" si="0"/>
         <v>14-1=13</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>$A6&amp;"-"&amp;C$2&amp;"="&amp;$A6-C$2</f>
+        <f t="shared" si="0"/>
         <v>14-2=12</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>$A6&amp;"-"&amp;D$2&amp;"="&amp;$A6-D$2</f>
+        <f t="shared" si="0"/>
         <v>14-3=11</v>
       </c>
-      <c r="E6" s="10" t="str">
-        <f>$A6&amp;"-"&amp;E$2&amp;"="&amp;$A6-E$2</f>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>14-4=10</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>$A6&amp;"-"&amp;F$2&amp;"="&amp;$A6-F$2</f>
+        <f t="shared" si="0"/>
         <v>14-5=9</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>$A6&amp;"-"&amp;G$2&amp;"="&amp;$A6-G$2</f>
+        <f t="shared" si="0"/>
         <v>14-6=8</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>$A6&amp;"-"&amp;H$2&amp;"="&amp;$A6-H$2</f>
+        <f t="shared" si="0"/>
         <v>14-7=7</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f>$A6&amp;"-"&amp;I$2&amp;"="&amp;$A6-I$2</f>
+        <f t="shared" si="0"/>
         <v>14-8=6</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f>$A6&amp;"-"&amp;J$2&amp;"="&amp;$A6-J$2</f>
+        <f t="shared" si="0"/>
         <v>14-9=5</v>
       </c>
     </row>
@@ -2096,39 +2547,39 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>$A7&amp;"-"&amp;B$2&amp;"="&amp;$A7-B$2</f>
+        <f t="shared" si="0"/>
         <v>15-1=14</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>$A7&amp;"-"&amp;C$2&amp;"="&amp;$A7-C$2</f>
+        <f t="shared" si="0"/>
         <v>15-2=13</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>$A7&amp;"-"&amp;D$2&amp;"="&amp;$A7-D$2</f>
+        <f t="shared" si="0"/>
         <v>15-3=12</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>$A7&amp;"-"&amp;E$2&amp;"="&amp;$A7-E$2</f>
+        <f t="shared" si="0"/>
         <v>15-4=11</v>
       </c>
-      <c r="F7" s="10" t="str">
-        <f>$A7&amp;"-"&amp;F$2&amp;"="&amp;$A7-F$2</f>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>15-5=10</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>$A7&amp;"-"&amp;G$2&amp;"="&amp;$A7-G$2</f>
+        <f t="shared" si="0"/>
         <v>15-6=9</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>$A7&amp;"-"&amp;H$2&amp;"="&amp;$A7-H$2</f>
+        <f t="shared" si="0"/>
         <v>15-7=8</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f>$A7&amp;"-"&amp;I$2&amp;"="&amp;$A7-I$2</f>
+        <f t="shared" si="0"/>
         <v>15-8=7</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f>$A7&amp;"-"&amp;J$2&amp;"="&amp;$A7-J$2</f>
+        <f t="shared" si="0"/>
         <v>15-9=6</v>
       </c>
     </row>
@@ -2137,39 +2588,39 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>$A8&amp;"-"&amp;B$2&amp;"="&amp;$A8-B$2</f>
+        <f t="shared" si="0"/>
         <v>16-1=15</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>$A8&amp;"-"&amp;C$2&amp;"="&amp;$A8-C$2</f>
+        <f t="shared" si="0"/>
         <v>16-2=14</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>$A8&amp;"-"&amp;D$2&amp;"="&amp;$A8-D$2</f>
+        <f t="shared" si="0"/>
         <v>16-3=13</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>$A8&amp;"-"&amp;E$2&amp;"="&amp;$A8-E$2</f>
+        <f t="shared" si="0"/>
         <v>16-4=12</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>$A8&amp;"-"&amp;F$2&amp;"="&amp;$A8-F$2</f>
+        <f t="shared" si="0"/>
         <v>16-5=11</v>
       </c>
-      <c r="G8" s="10" t="str">
-        <f>$A8&amp;"-"&amp;G$2&amp;"="&amp;$A8-G$2</f>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>16-6=10</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>$A8&amp;"-"&amp;H$2&amp;"="&amp;$A8-H$2</f>
+        <f t="shared" si="0"/>
         <v>16-7=9</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f>$A8&amp;"-"&amp;I$2&amp;"="&amp;$A8-I$2</f>
+        <f t="shared" si="0"/>
         <v>16-8=8</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f>$A8&amp;"-"&amp;J$2&amp;"="&amp;$A8-J$2</f>
+        <f t="shared" si="0"/>
         <v>16-9=7</v>
       </c>
     </row>
@@ -2178,39 +2629,39 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>$A9&amp;"-"&amp;B$2&amp;"="&amp;$A9-B$2</f>
+        <f t="shared" si="0"/>
         <v>17-1=16</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>$A9&amp;"-"&amp;C$2&amp;"="&amp;$A9-C$2</f>
+        <f t="shared" si="0"/>
         <v>17-2=15</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>$A9&amp;"-"&amp;D$2&amp;"="&amp;$A9-D$2</f>
+        <f t="shared" si="0"/>
         <v>17-3=14</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>$A9&amp;"-"&amp;E$2&amp;"="&amp;$A9-E$2</f>
+        <f t="shared" si="0"/>
         <v>17-4=13</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>$A9&amp;"-"&amp;F$2&amp;"="&amp;$A9-F$2</f>
+        <f t="shared" si="0"/>
         <v>17-5=12</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>$A9&amp;"-"&amp;G$2&amp;"="&amp;$A9-G$2</f>
+        <f t="shared" si="0"/>
         <v>17-6=11</v>
       </c>
-      <c r="H9" s="10" t="str">
-        <f>$A9&amp;"-"&amp;H$2&amp;"="&amp;$A9-H$2</f>
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>17-7=10</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f>$A9&amp;"-"&amp;I$2&amp;"="&amp;$A9-I$2</f>
+        <f t="shared" si="0"/>
         <v>17-8=9</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f>$A9&amp;"-"&amp;J$2&amp;"="&amp;$A9-J$2</f>
+        <f t="shared" si="0"/>
         <v>17-9=8</v>
       </c>
     </row>
@@ -2219,39 +2670,39 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>$A10&amp;"-"&amp;B$2&amp;"="&amp;$A10-B$2</f>
+        <f t="shared" si="0"/>
         <v>18-1=17</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>$A10&amp;"-"&amp;C$2&amp;"="&amp;$A10-C$2</f>
+        <f t="shared" si="0"/>
         <v>18-2=16</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>$A10&amp;"-"&amp;D$2&amp;"="&amp;$A10-D$2</f>
+        <f t="shared" si="0"/>
         <v>18-3=15</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>$A10&amp;"-"&amp;E$2&amp;"="&amp;$A10-E$2</f>
+        <f t="shared" si="0"/>
         <v>18-4=14</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>$A10&amp;"-"&amp;F$2&amp;"="&amp;$A10-F$2</f>
+        <f t="shared" si="0"/>
         <v>18-5=13</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>$A10&amp;"-"&amp;G$2&amp;"="&amp;$A10-G$2</f>
+        <f t="shared" si="0"/>
         <v>18-6=12</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>$A10&amp;"-"&amp;H$2&amp;"="&amp;$A10-H$2</f>
+        <f t="shared" si="0"/>
         <v>18-7=11</v>
       </c>
-      <c r="I10" s="10" t="str">
-        <f>$A10&amp;"-"&amp;I$2&amp;"="&amp;$A10-I$2</f>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>18-8=10</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>$A10&amp;"-"&amp;J$2&amp;"="&amp;$A10-J$2</f>
+        <f t="shared" si="0"/>
         <v>18-9=9</v>
       </c>
     </row>
@@ -2260,39 +2711,39 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>$A11&amp;"-"&amp;B$2&amp;"="&amp;$A11-B$2</f>
+        <f t="shared" si="0"/>
         <v>19-1=18</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>$A11&amp;"-"&amp;C$2&amp;"="&amp;$A11-C$2</f>
+        <f t="shared" si="0"/>
         <v>19-2=17</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>$A11&amp;"-"&amp;D$2&amp;"="&amp;$A11-D$2</f>
+        <f t="shared" si="0"/>
         <v>19-3=16</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>$A11&amp;"-"&amp;E$2&amp;"="&amp;$A11-E$2</f>
+        <f t="shared" si="0"/>
         <v>19-4=15</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>$A11&amp;"-"&amp;F$2&amp;"="&amp;$A11-F$2</f>
+        <f t="shared" si="0"/>
         <v>19-5=14</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>$A11&amp;"-"&amp;G$2&amp;"="&amp;$A11-G$2</f>
+        <f t="shared" si="0"/>
         <v>19-6=13</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>$A11&amp;"-"&amp;H$2&amp;"="&amp;$A11-H$2</f>
+        <f t="shared" si="0"/>
         <v>19-7=12</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f>$A11&amp;"-"&amp;I$2&amp;"="&amp;$A11-I$2</f>
+        <f t="shared" si="0"/>
         <v>19-8=11</v>
       </c>
-      <c r="J11" s="10" t="str">
-        <f>$A11&amp;"-"&amp;J$2&amp;"="&amp;$A11-J$2</f>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>19-9=10</v>
       </c>
     </row>
@@ -2301,39 +2752,39 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;B$2&amp;"="&amp;$A12-B$2</f>
+        <f t="shared" si="0"/>
         <v>20-1=19</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;C$2&amp;"="&amp;$A12-C$2</f>
+        <f t="shared" si="0"/>
         <v>20-2=18</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;D$2&amp;"="&amp;$A12-D$2</f>
+        <f t="shared" si="0"/>
         <v>20-3=17</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;E$2&amp;"="&amp;$A12-E$2</f>
+        <f t="shared" si="0"/>
         <v>20-4=16</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;F$2&amp;"="&amp;$A12-F$2</f>
+        <f t="shared" si="0"/>
         <v>20-5=15</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;G$2&amp;"="&amp;$A12-G$2</f>
+        <f t="shared" si="0"/>
         <v>20-6=14</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;H$2&amp;"="&amp;$A12-H$2</f>
+        <f t="shared" si="0"/>
         <v>20-7=13</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;I$2&amp;"="&amp;$A12-I$2</f>
+        <f t="shared" si="0"/>
         <v>20-8=12</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f>$A12&amp;"-"&amp;J$2&amp;"="&amp;$A12-J$2</f>
+        <f t="shared" si="0"/>
         <v>20-9=11</v>
       </c>
     </row>
@@ -2348,11 +2799,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66731F5F-88BA-074B-A547-C313C8C9CB12}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2362,19 +2813,19 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="5">
@@ -2776,54 +3227,54 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="44" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>6</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>7</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>8</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="9" t="str">
         <f>$A15*B$14&amp;"÷"&amp;B$14&amp;"="&amp;$A15</f>
         <v>1÷1=1</v>
       </c>
@@ -2861,14 +3312,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ref="B16:J23" si="3">$A16*B$14&amp;"÷"&amp;B$14&amp;"="&amp;$A16</f>
         <v>2÷1=2</v>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="3"/>
         <v>4÷2=2</v>
       </c>
@@ -2902,7 +3353,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="40" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -2913,7 +3364,7 @@
         <f t="shared" si="3"/>
         <v>6÷2=3</v>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="9" t="str">
         <f t="shared" si="3"/>
         <v>9÷3=3</v>
       </c>
@@ -2943,7 +3394,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="40" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -2958,7 +3409,7 @@
         <f t="shared" si="3"/>
         <v>12÷3=4</v>
       </c>
-      <c r="E18" s="10" t="str">
+      <c r="E18" s="9" t="str">
         <f t="shared" si="3"/>
         <v>16÷4=4</v>
       </c>
@@ -2984,7 +3435,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -3003,7 +3454,7 @@
         <f t="shared" si="3"/>
         <v>20÷4=5</v>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="9" t="str">
         <f t="shared" si="3"/>
         <v>25÷5=5</v>
       </c>
@@ -3025,7 +3476,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="40" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>6</v>
       </c>
       <c r="B20" s="2" t="str">
@@ -3048,7 +3499,7 @@
         <f t="shared" si="3"/>
         <v>30÷5=6</v>
       </c>
-      <c r="G20" s="10" t="str">
+      <c r="G20" s="9" t="str">
         <f t="shared" si="3"/>
         <v>36÷6=6</v>
       </c>
@@ -3066,7 +3517,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="40" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>7</v>
       </c>
       <c r="B21" s="2" t="str">
@@ -3093,7 +3544,7 @@
         <f t="shared" si="3"/>
         <v>42÷6=7</v>
       </c>
-      <c r="H21" s="10" t="str">
+      <c r="H21" s="9" t="str">
         <f t="shared" si="3"/>
         <v>49÷7=7</v>
       </c>
@@ -3107,7 +3558,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="40" customHeight="1">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -3138,7 +3589,7 @@
         <f t="shared" si="3"/>
         <v>56÷7=8</v>
       </c>
-      <c r="I22" s="10" t="str">
+      <c r="I22" s="9" t="str">
         <f t="shared" si="3"/>
         <v>64÷8=8</v>
       </c>
@@ -3148,7 +3599,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="40" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>9</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -3183,7 +3634,7 @@
         <f t="shared" si="3"/>
         <v>72÷8=9</v>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J23" s="9" t="str">
         <f t="shared" si="3"/>
         <v>81÷9=9</v>
       </c>
@@ -3202,4 +3653,445 @@
     <brk id="24" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124D6526-1386-E446-BA3E-D158B8B45CF5}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="40" customHeight="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f>B$11&amp;"×"&amp;$A2&amp;"="&amp;$A2*B$11</f>
+        <v>1×1=1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:J2" si="0">C$11&amp;"×"&amp;$A2&amp;"="&amp;$A2*C$11</f>
+        <v>2×1=2</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3×1=3</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4×1=4</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5×1=5</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6×1=6</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7×1=7</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>8×1=8</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>9×1=9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:J10" si="1">B$11&amp;"×"&amp;$A3&amp;"="&amp;$A3*B$11</f>
+        <v>1×2=2</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2×2=4</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3×2=6</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4×2=8</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5×2=10</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6×2=12</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7×2=14</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8×2=16</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9×2=18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="40" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1×3=3</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2×3=6</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3×3=9</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4×3=12</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5×3=15</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6×3=18</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7×3=21</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8×3=24</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9×3=27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40" customHeight="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1×4=4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2×4=8</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3×4=12</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4×4=16</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5×4=20</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6×4=24</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7×4=28</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8×4=32</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9×4=36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="40" customHeight="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1×5=5</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2×5=10</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3×5=15</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4×5=20</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5×5=25</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6×5=30</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7×5=35</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8×5=40</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9×5=45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40" customHeight="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1×6=6</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2×6=12</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3×6=18</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4×6=24</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5×6=30</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6×6=36</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7×6=42</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8×6=48</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9×6=54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1×7=7</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2×7=14</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3×7=21</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4×7=28</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5×7=35</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6×7=42</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>7×7=49</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8×7=56</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9×7=63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1×8=8</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2×8=16</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3×8=24</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4×8=32</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5×8=40</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6×8=48</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7×8=56</v>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>8×8=64</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9×8=72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1×9=9</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2×9=18</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3×9=27</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4×9=36</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5×9=45</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6×9=54</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7×9=63</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8×9=72</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>9×9=81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
 </file>
--- a/math/口算表.xlsx
+++ b/math/口算表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouji/projects/k12-education/math/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFFC85D-210E-EB46-8F94-F7AE8EF4648D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2C0D5C-6690-3F48-905B-922C13A0D6C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="460" windowWidth="23920" windowHeight="17280" xr2:uid="{9E6E616A-2259-2C43-9342-F3A2907E112A}"/>
+    <workbookView xWindow="8120" yWindow="3260" windowWidth="23920" windowHeight="17280" xr2:uid="{9E6E616A-2259-2C43-9342-F3A2907E112A}"/>
   </bookViews>
   <sheets>
     <sheet name="加法" sheetId="7" r:id="rId1"/>
@@ -18,25 +18,20 @@
     <sheet name="减法" sheetId="10" r:id="rId3"/>
     <sheet name="减法2" sheetId="11" r:id="rId4"/>
     <sheet name="乘法" sheetId="12" r:id="rId5"/>
-    <sheet name="除法" sheetId="13" r:id="rId6"/>
+    <sheet name="九九乘法口诀" sheetId="14" r:id="rId6"/>
+    <sheet name="除法" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>除法表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +54,190 @@
   </si>
   <si>
     <t>乘法表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九九乘法口诀表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一一得一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二得二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一三得三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一四得四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一五得五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一六得六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一七得七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一八得八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一九得九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二二得四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二三得六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二四得八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二五一十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二六十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二七十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三三得九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三四十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四四十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三五十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四五二十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五五二十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三六十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四六十二四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五六三十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六三十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七二十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四七二十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五七三十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六七四十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七四十九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三八二十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五八四十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六八四十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七八五十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八八六十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二九十八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三九二十七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四九三十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五九四十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六九五十四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七九六十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八九七十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九九八十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二八十六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四八三十二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,9 +383,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -215,6 +391,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +715,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="11" width="11.5" style="1" customWidth="1"/>
@@ -544,19 +723,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="3"/>
@@ -1063,7 +1242,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -1071,18 +1250,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="3"/>
@@ -1546,7 +1725,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="11" width="11.5" style="1" customWidth="1"/>
@@ -1554,19 +1733,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="3"/>
@@ -2010,7 +2189,7 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>10-0=10</v>
       </c>
@@ -2073,7 +2252,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="11" width="11.5" style="1" customWidth="1"/>
@@ -2081,19 +2260,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="3"/>
@@ -2132,43 +2311,43 @@
       <c r="A3" s="4">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="7" t="str">
         <f>IF($A3&gt;=B$2,$A3&amp;"-"&amp;B$2&amp;"="&amp;$A3-B$2,"")</f>
         <v>11-1=10</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:K3" si="0">IF($A3&gt;=C$2,$A3&amp;"-"&amp;C$2&amp;"="&amp;$A3-C$2,"")</f>
         <v>11-2=9</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11-3=8</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11-4=7</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11-5=6</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11-6=5</v>
       </c>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11-7=4</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11-8=3</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11-9=2</v>
       </c>
-      <c r="K3" s="8" t="str">
+      <c r="K3" s="7" t="str">
         <f t="shared" si="0"/>
         <v>11-10=1</v>
       </c>
@@ -2177,43 +2356,43 @@
       <c r="A4" s="4">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="8" t="str">
         <f t="shared" ref="B4:K12" si="1">IF($A4&gt;=B$2,$A4&amp;"-"&amp;B$2&amp;"="&amp;$A4-B$2,"")</f>
         <v>12-1=11</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>12-2=10</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12-3=9</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12-4=8</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12-5=7</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="G4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12-6=6</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12-7=5</v>
       </c>
-      <c r="I4" s="9" t="str">
+      <c r="I4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12-8=4</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12-9=3</v>
       </c>
-      <c r="K4" s="8" t="str">
+      <c r="K4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>12-10=2</v>
       </c>
@@ -2222,43 +2401,43 @@
       <c r="A5" s="4">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13-1=12</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13-2=11</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>13-3=10</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13-4=9</v>
       </c>
-      <c r="F5" s="9" t="str">
+      <c r="F5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13-5=8</v>
       </c>
-      <c r="G5" s="9" t="str">
+      <c r="G5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13-6=7</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13-7=6</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13-8=5</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>13-9=4</v>
       </c>
-      <c r="K5" s="8" t="str">
+      <c r="K5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>13-10=3</v>
       </c>
@@ -2267,43 +2446,43 @@
       <c r="A6" s="4">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14-1=13</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14-2=12</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14-3=11</v>
       </c>
-      <c r="E6" s="8" t="str">
+      <c r="E6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>14-4=10</v>
       </c>
-      <c r="F6" s="9" t="str">
+      <c r="F6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14-5=9</v>
       </c>
-      <c r="G6" s="9" t="str">
+      <c r="G6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14-6=8</v>
       </c>
-      <c r="H6" s="9" t="str">
+      <c r="H6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14-7=7</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="I6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14-8=6</v>
       </c>
-      <c r="J6" s="9" t="str">
+      <c r="J6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>14-9=5</v>
       </c>
-      <c r="K6" s="8" t="str">
+      <c r="K6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>14-10=4</v>
       </c>
@@ -2312,43 +2491,43 @@
       <c r="A7" s="4">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15-1=14</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15-2=13</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15-3=12</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15-4=11</v>
       </c>
-      <c r="F7" s="8" t="str">
+      <c r="F7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>15-5=10</v>
       </c>
-      <c r="G7" s="9" t="str">
+      <c r="G7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15-6=9</v>
       </c>
-      <c r="H7" s="9" t="str">
+      <c r="H7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15-7=8</v>
       </c>
-      <c r="I7" s="9" t="str">
+      <c r="I7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15-8=7</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>15-9=6</v>
       </c>
-      <c r="K7" s="8" t="str">
+      <c r="K7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>15-10=5</v>
       </c>
@@ -2357,43 +2536,43 @@
       <c r="A8" s="4">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16-1=15</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16-2=14</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16-3=13</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16-4=12</v>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16-5=11</v>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>16-6=10</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16-7=9</v>
       </c>
-      <c r="I8" s="9" t="str">
+      <c r="I8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16-8=8</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>16-9=7</v>
       </c>
-      <c r="K8" s="8" t="str">
+      <c r="K8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>16-10=6</v>
       </c>
@@ -2402,43 +2581,43 @@
       <c r="A9" s="4">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17-1=16</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17-2=15</v>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17-3=14</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17-4=13</v>
       </c>
-      <c r="F9" s="9" t="str">
+      <c r="F9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17-5=12</v>
       </c>
-      <c r="G9" s="9" t="str">
+      <c r="G9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17-6=11</v>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>17-7=10</v>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="I9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17-8=9</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>17-9=8</v>
       </c>
-      <c r="K9" s="8" t="str">
+      <c r="K9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>17-10=7</v>
       </c>
@@ -2447,43 +2626,43 @@
       <c r="A10" s="4">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18-1=17</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18-2=16</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18-3=15</v>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18-4=14</v>
       </c>
-      <c r="F10" s="9" t="str">
+      <c r="F10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18-5=13</v>
       </c>
-      <c r="G10" s="9" t="str">
+      <c r="G10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18-6=12</v>
       </c>
-      <c r="H10" s="9" t="str">
+      <c r="H10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18-7=11</v>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>18-8=10</v>
       </c>
-      <c r="J10" s="9" t="str">
+      <c r="J10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>18-9=9</v>
       </c>
-      <c r="K10" s="8" t="str">
+      <c r="K10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>18-10=8</v>
       </c>
@@ -2492,43 +2671,43 @@
       <c r="A11" s="4">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19-1=18</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19-2=17</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19-3=16</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19-4=15</v>
       </c>
-      <c r="F11" s="9" t="str">
+      <c r="F11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19-5=14</v>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="G11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19-6=13</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19-7=12</v>
       </c>
-      <c r="I11" s="9" t="str">
+      <c r="I11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>19-8=11</v>
       </c>
-      <c r="J11" s="8" t="str">
+      <c r="J11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>19-9=10</v>
       </c>
-      <c r="K11" s="8" t="str">
+      <c r="K11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>19-10=9</v>
       </c>
@@ -2537,43 +2716,43 @@
       <c r="A12" s="4">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-1=19</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-2=18</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-3=17</v>
       </c>
-      <c r="E12" s="9" t="str">
+      <c r="E12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-4=16</v>
       </c>
-      <c r="F12" s="9" t="str">
+      <c r="F12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-5=15</v>
       </c>
-      <c r="G12" s="9" t="str">
+      <c r="G12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-6=14</v>
       </c>
-      <c r="H12" s="9" t="str">
+      <c r="H12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-7=13</v>
       </c>
-      <c r="I12" s="9" t="str">
+      <c r="I12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-8=12</v>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>20-9=11</v>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>20-10=10</v>
       </c>
@@ -2600,7 +2779,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -2608,18 +2787,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="3"/>
@@ -3035,6 +3214,295 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A5E2E1-3518-3045-B3EB-24AB04FE372E}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="40" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="40" customHeight="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="40" customHeight="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="40" customHeight="1">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="40" customHeight="1">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="40" customHeight="1">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="40" customHeight="1">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DC77CF-4DBB-E64B-9399-582343F38EF4}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -3042,7 +3510,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -3050,18 +3518,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="44" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="3"/>

--- a/math/口算表.xlsx
+++ b/math/口算表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouji/projects/k12-education/math/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2C0D5C-6690-3F48-905B-922C13A0D6C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB649A-2D92-DD4D-958B-4CCC53D430B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="3260" windowWidth="23920" windowHeight="17280" xr2:uid="{9E6E616A-2259-2C43-9342-F3A2907E112A}"/>
+    <workbookView xWindow="8120" yWindow="3260" windowWidth="23920" windowHeight="17280" activeTab="5" xr2:uid="{9E6E616A-2259-2C43-9342-F3A2907E112A}"/>
   </bookViews>
   <sheets>
     <sheet name="加法" sheetId="7" r:id="rId1"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四六十二四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五六三十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +234,10 @@
   </si>
   <si>
     <t>四八三十二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四六二十四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7281994-0C9B-0C43-A6F1-1F2411939DD5}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3217,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A5E2E1-3518-3045-B3EB-24AB04FE372E}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3386,13 +3386,13 @@
         <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3409,19 +3409,19 @@
         <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -3434,25 +3434,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -3464,28 +3464,28 @@
         <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
